--- a/Project0/Fusion(Clean)/Data/RoSADatasheet.xlsx
+++ b/Project0/Fusion(Clean)/Data/RoSADatasheet.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Revature\Project0\Damle_M_Valentine_N_P0\Project0\Fusion(Clean)\Data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78B2652A-C7EB-46DF-B5E7-1CAA365445D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="VendorList" sheetId="1" r:id="rId1"/>
@@ -197,7 +203,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -538,14 +544,14 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -598,7 +604,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -871,11 +877,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -994,16 +1000,16 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1"/>
-    <hyperlink ref="D3" r:id="rId2"/>
-    <hyperlink ref="D4" r:id="rId3"/>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+    <hyperlink ref="D3" r:id="rId2" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
+    <hyperlink ref="D4" r:id="rId3" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1029,10 +1035,10 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:H1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
@@ -1075,7 +1081,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
